--- a/Final Capstone/GUI/build/assets/DB/DB File.xlsx
+++ b/Final Capstone/GUI/build/assets/DB/DB File.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\MtechISS\Final Capstone\GUI\build\assets\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE01501-8960-4E06-90C1-92FA9641E504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001AE9D9-D794-4611-A77E-9DA1941E61F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="1590" windowWidth="15555" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Month_Stats" sheetId="2" r:id="rId1"/>
+    <sheet name="Month_Stats" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -37,11 +33,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="24">
   <si>
     <t>Months</t>
   </si>
   <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Actual_WTA_Demand</t>
+  </si>
+  <si>
+    <t>Predicted_WTA</t>
+  </si>
+  <si>
     <t>Demand</t>
   </si>
   <si>
@@ -51,9 +56,15 @@
     <t>Expected</t>
   </si>
   <si>
+    <t>Actual_WTA</t>
+  </si>
+  <si>
     <t>2024-01</t>
   </si>
   <si>
+    <t>ENT</t>
+  </si>
+  <si>
     <t>2024-02</t>
   </si>
   <si>
@@ -87,9 +98,6 @@
     <t>2024-12</t>
   </si>
   <si>
-    <t>ENT</t>
-  </si>
-  <si>
     <t>ALL</t>
   </si>
   <si>
@@ -97,31 +105,16 @@
   </si>
   <si>
     <t>GAS</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Predicted_WTA</t>
-  </si>
-  <si>
-    <t>Actual_WTA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -435,107 +428,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83984A5A-5B60-422C-BF1B-9ADDDF5E5283}">
-  <dimension ref="A1:G49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:G56"/>
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2">
         <f>D2-3</f>
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>300</v>
+      </c>
+      <c r="G2">
+        <v>140</v>
+      </c>
+      <c r="H2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <f>D3-3</f>
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="F3">
+        <v>400</v>
+      </c>
+      <c r="G3">
+        <v>160</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>108</v>
-      </c>
-      <c r="F2">
-        <v>200</v>
-      </c>
-      <c r="G2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C49" si="0">D3-3</f>
-        <v>36</v>
-      </c>
-      <c r="D3">
-        <v>39</v>
-      </c>
-      <c r="E3">
-        <v>120</v>
-      </c>
-      <c r="F3">
-        <v>200</v>
-      </c>
-      <c r="G3">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <v>798</v>
       </c>
       <c r="D4">
         <v>42</v>
       </c>
       <c r="E4">
-        <v>112</v>
+        <v>1429</v>
       </c>
       <c r="F4">
         <v>200</v>
@@ -543,23 +540,25 @@
       <c r="G4">
         <v>179</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1053</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>124</v>
+        <v>1860</v>
       </c>
       <c r="F5">
         <v>200</v>
@@ -567,16 +566,19 @@
       <c r="G5">
         <v>135</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>D6-3</f>
         <v>82</v>
       </c>
       <c r="D6">
@@ -588,16 +590,19 @@
       <c r="G6">
         <v>149</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f>D7-3</f>
         <v>36</v>
       </c>
       <c r="D7">
@@ -609,16 +614,19 @@
       <c r="G7">
         <v>153</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f>D8-3</f>
         <v>66</v>
       </c>
       <c r="D8">
@@ -627,16 +635,19 @@
       <c r="G8">
         <v>174</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f>D9-3</f>
         <v>18</v>
       </c>
       <c r="D9">
@@ -645,16 +656,19 @@
       <c r="G9">
         <v>151</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f>D10-3</f>
         <v>11</v>
       </c>
       <c r="D10">
@@ -663,16 +677,19 @@
       <c r="G10">
         <v>142</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f>D11-3</f>
         <v>27</v>
       </c>
       <c r="D11">
@@ -681,16 +698,19 @@
       <c r="G11">
         <v>152</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f>D12-3</f>
         <v>87</v>
       </c>
       <c r="D12">
@@ -699,16 +719,19 @@
       <c r="G12">
         <v>150</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f>D13-3</f>
         <v>53</v>
       </c>
       <c r="D13">
@@ -717,16 +740,19 @@
       <c r="G13">
         <v>133</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f>D14-3</f>
         <v>10</v>
       </c>
       <c r="D14">
@@ -741,16 +767,19 @@
       <c r="G14">
         <v>149</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f>D15-3</f>
         <v>77</v>
       </c>
       <c r="D15">
@@ -765,16 +794,19 @@
       <c r="G15">
         <v>173</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f>D16-3</f>
         <v>91</v>
       </c>
       <c r="D16">
@@ -789,16 +821,19 @@
       <c r="G16">
         <v>154</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f>D17-3</f>
         <v>0</v>
       </c>
       <c r="D17">
@@ -813,16 +848,19 @@
       <c r="G17">
         <v>158</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f>D18-3</f>
         <v>95</v>
       </c>
       <c r="D18">
@@ -837,16 +875,19 @@
       <c r="G18">
         <v>164</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f>D19-3</f>
         <v>72</v>
       </c>
       <c r="D19">
@@ -861,16 +902,19 @@
       <c r="G19">
         <v>158</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f>D20-3</f>
         <v>50</v>
       </c>
       <c r="D20">
@@ -882,16 +926,19 @@
       <c r="G20">
         <v>138</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f>D21-3</f>
         <v>14</v>
       </c>
       <c r="D21">
@@ -903,16 +950,19 @@
       <c r="G21">
         <v>172</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f>D22-3</f>
         <v>71</v>
       </c>
       <c r="D22">
@@ -924,13 +974,16 @@
       <c r="G22">
         <v>130</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <v>131</v>
@@ -942,12 +995,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D24">
         <v>188</v>
@@ -959,12 +1012,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D25">
         <v>245</v>
@@ -976,15 +1029,15 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f>D26-3</f>
         <v>70</v>
       </c>
       <c r="D26">
@@ -999,16 +1052,19 @@
       <c r="G26">
         <v>157</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f>D27-3</f>
         <v>8</v>
       </c>
       <c r="D27">
@@ -1023,23 +1079,25 @@
       <c r="G27">
         <v>155</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
-        <v>66</v>
+        <v>1572</v>
       </c>
       <c r="D28">
         <v>69</v>
       </c>
       <c r="E28">
-        <v>108</v>
+        <v>2312</v>
       </c>
       <c r="F28">
         <v>300</v>
@@ -1047,23 +1105,25 @@
       <c r="G28">
         <v>161</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>1571</v>
       </c>
       <c r="D29">
         <v>47</v>
       </c>
       <c r="E29">
-        <v>124</v>
+        <v>2323</v>
       </c>
       <c r="F29">
         <v>300</v>
@@ -1071,16 +1131,19 @@
       <c r="G29">
         <v>170</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f>D30-3</f>
         <v>92</v>
       </c>
       <c r="D30">
@@ -1095,16 +1158,19 @@
       <c r="G30">
         <v>161</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f>D31-3</f>
         <v>54</v>
       </c>
       <c r="D31">
@@ -1119,16 +1185,19 @@
       <c r="G31">
         <v>133</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f>D32-3</f>
         <v>58</v>
       </c>
       <c r="D32">
@@ -1140,16 +1209,19 @@
       <c r="G32">
         <v>157</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f>D33-3</f>
         <v>88</v>
       </c>
       <c r="D33">
@@ -1161,363 +1233,540 @@
       <c r="G33">
         <v>140</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
-        <v>76</v>
+        <f>D34-3</f>
+        <v>70</v>
       </c>
       <c r="D34">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F34">
         <v>300</v>
       </c>
       <c r="G34">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="H34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f>D35-3</f>
         <v>60</v>
       </c>
       <c r="D35">
         <v>63</v>
       </c>
       <c r="F35">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G35">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="H35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <f>D36-3</f>
+        <v>60</v>
       </c>
       <c r="D36">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F36">
         <v>300</v>
       </c>
       <c r="G36">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="H36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>D37-3</f>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F37">
+        <v>400</v>
+      </c>
+      <c r="G37">
+        <v>162</v>
+      </c>
+      <c r="H37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38">
+        <f>D38-3</f>
+        <v>76</v>
+      </c>
+      <c r="D38">
+        <v>79</v>
+      </c>
+      <c r="F38">
         <v>300</v>
       </c>
-      <c r="G37">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="D38">
-        <v>90</v>
-      </c>
-      <c r="E38">
-        <v>106</v>
-      </c>
-      <c r="F38">
-        <v>400</v>
-      </c>
       <c r="G38">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="H38">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>D39-3</f>
+        <v>86</v>
       </c>
       <c r="D39">
-        <v>23</v>
-      </c>
-      <c r="E39">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F39">
         <v>400</v>
       </c>
       <c r="G39">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="H39">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
-        <v>86</v>
+        <f>D40-3</f>
+        <v>12</v>
       </c>
       <c r="D40">
-        <v>89</v>
-      </c>
-      <c r="E40">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="F40">
         <v>400</v>
       </c>
       <c r="G40">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s">
-        <v>19</v>
+        <v>124</v>
+      </c>
+      <c r="H40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="D41">
-        <v>73</v>
-      </c>
-      <c r="E41">
-        <v>116</v>
-      </c>
-      <c r="F41">
+        <f>D41-3</f>
+        <v>61</v>
+      </c>
+      <c r="D41" s="1">
+        <v>64</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1">
         <v>400</v>
       </c>
-      <c r="G41">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="1">
+        <v>164</v>
+      </c>
+      <c r="H41">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="D42">
-        <v>68</v>
-      </c>
-      <c r="E42">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="F42">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43">
+        <v>4201</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44">
+        <f>D44-3</f>
+        <v>39</v>
+      </c>
+      <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <v>106</v>
+      </c>
+      <c r="F44">
         <v>400</v>
       </c>
-      <c r="G42">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="G44">
+        <v>145</v>
+      </c>
+      <c r="H44">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
         <v>9</v>
       </c>
-      <c r="B43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="D43">
-        <v>42</v>
-      </c>
-      <c r="E43">
-        <v>106</v>
-      </c>
-      <c r="F43">
-        <v>400</v>
-      </c>
-      <c r="G43">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="D44" s="1">
-        <v>64</v>
-      </c>
-      <c r="F44" s="1">
-        <v>400</v>
-      </c>
-      <c r="G44" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D45">
-        <v>15</v>
-      </c>
       <c r="F45">
-        <v>400</v>
-      </c>
-      <c r="G45">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="D46">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F46">
-        <v>400</v>
-      </c>
-      <c r="G46">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>D47-3</f>
+        <v>65</v>
       </c>
       <c r="D47">
-        <v>33</v>
+        <v>68</v>
+      </c>
+      <c r="E47">
+        <v>130</v>
       </c>
       <c r="F47">
         <v>400</v>
       </c>
       <c r="G47">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="H47">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="D48">
-        <v>63</v>
-      </c>
-      <c r="F48">
+        <v>1065</v>
+      </c>
+      <c r="E48">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49">
+        <v>918</v>
+      </c>
+      <c r="E49">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50">
+        <v>1492</v>
+      </c>
+      <c r="E50">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51">
+        <v>947</v>
+      </c>
+      <c r="D51">
+        <v>73</v>
+      </c>
+      <c r="E51">
+        <v>1237</v>
+      </c>
+      <c r="F51">
         <v>400</v>
       </c>
-      <c r="G48">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D49">
+      <c r="G51">
+        <v>173</v>
+      </c>
+      <c r="H51">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>1053</v>
+      </c>
+      <c r="E52">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53">
+        <v>1571</v>
+      </c>
+      <c r="E53">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54">
+        <v>884</v>
+      </c>
+      <c r="D54">
+        <v>89</v>
+      </c>
+      <c r="E54">
+        <v>1166</v>
+      </c>
+      <c r="F54">
+        <v>400</v>
+      </c>
+      <c r="G54">
+        <v>121</v>
+      </c>
+      <c r="H54">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <f>D55-3</f>
+        <v>36</v>
+      </c>
+      <c r="D55">
+        <v>39</v>
+      </c>
+      <c r="E55">
+        <v>120</v>
+      </c>
+      <c r="F55">
+        <v>200</v>
+      </c>
+      <c r="G55">
+        <v>152</v>
+      </c>
+      <c r="H55">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <f>D56-3</f>
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>23</v>
+      </c>
+      <c r="E56">
+        <v>105</v>
+      </c>
+      <c r="F56">
+        <v>400</v>
+      </c>
+      <c r="G56">
+        <v>151</v>
+      </c>
+      <c r="H56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>8</v>
       </c>
-      <c r="F49">
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <f>D57-3</f>
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>11</v>
+      </c>
+      <c r="E57">
+        <v>108</v>
+      </c>
+      <c r="F57">
+        <v>200</v>
+      </c>
+      <c r="G57">
+        <v>150</v>
+      </c>
+      <c r="H57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <f>D58-3</f>
+        <v>87</v>
+      </c>
+      <c r="D58">
+        <v>90</v>
+      </c>
+      <c r="E58">
+        <v>106</v>
+      </c>
+      <c r="F58">
         <v>400</v>
       </c>
-      <c r="G49">
-        <v>160</v>
+      <c r="G58">
+        <v>153</v>
+      </c>
+      <c r="H58">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H58">
+    <sortCondition descending="1" ref="A1:A58"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Final Capstone/GUI/build/assets/DB/DB File.xlsx
+++ b/Final Capstone/GUI/build/assets/DB/DB File.xlsx
@@ -27,18 +27,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -53,9 +47,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,10 +392,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -410,7 +403,10 @@
     <col width="27" customWidth="1" min="1" max="1"/>
     <col width="12.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="11.5703125" customWidth="1" min="7" max="7"/>
+    <col width="17.5703125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="11.85546875" customWidth="1" min="6" max="6"/>
+    <col width="14.42578125" customWidth="1" min="7" max="7"/>
     <col width="11.85546875" bestFit="1" customWidth="1" min="8" max="8"/>
     <col width="12.5703125" bestFit="1" customWidth="1" min="9" max="9"/>
   </cols>
@@ -448,7 +444,7 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Expected</t>
+          <t>Predicted_Demand</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -465,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -474,256 +470,142 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>762</v>
+        <v>870</v>
       </c>
       <c r="E2" t="n">
-        <v>1295</v>
-      </c>
-      <c r="F2" t="n">
-        <v>300</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OTO</t>
-        </is>
-      </c>
-      <c r="C3">
-        <f>D3-3</f>
-        <v/>
-      </c>
-      <c r="D3" t="n">
-        <v>73</v>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>845</v>
       </c>
       <c r="E3" t="n">
-        <v>121</v>
-      </c>
-      <c r="F3" t="n">
-        <v>300</v>
-      </c>
-      <c r="G3" t="n">
-        <v>157</v>
-      </c>
-      <c r="H3" t="n">
-        <v>70</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENT</t>
-        </is>
-      </c>
-      <c r="C4">
-        <f>D4-3</f>
-        <v/>
-      </c>
-      <c r="D4" t="n">
-        <v>11</v>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1435</v>
       </c>
       <c r="E4" t="n">
-        <v>108</v>
-      </c>
-      <c r="F4" t="n">
-        <v>200</v>
-      </c>
-      <c r="G4" t="n">
-        <v>150</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>100</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="C5">
-        <f>D5-3</f>
-        <v/>
-      </c>
-      <c r="D5" t="n">
-        <v>90</v>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>106</v>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>153</v>
-      </c>
-      <c r="H5" t="n">
-        <v>87</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
+        <v>895</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OTO</t>
-        </is>
-      </c>
-      <c r="C6">
-        <f>D6-3</f>
-        <v/>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>651</v>
       </c>
       <c r="E6" t="n">
-        <v>107</v>
-      </c>
-      <c r="F6" t="n">
-        <v>300</v>
-      </c>
-      <c r="G6" t="n">
-        <v>155</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>100</v>
+        <v>959</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENT</t>
-        </is>
-      </c>
-      <c r="C7">
-        <f>D7-3</f>
-        <v/>
-      </c>
-      <c r="D7" t="n">
-        <v>39</v>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1077</v>
       </c>
       <c r="E7" t="n">
-        <v>120</v>
-      </c>
-      <c r="F7" t="n">
-        <v>200</v>
-      </c>
-      <c r="G7" t="n">
-        <v>152</v>
-      </c>
-      <c r="H7" t="n">
-        <v>36</v>
-      </c>
-      <c r="I7" t="n">
-        <v>100</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="C8">
-        <f>D8-3</f>
-        <v/>
-      </c>
-      <c r="D8" t="n">
-        <v>23</v>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>979</v>
       </c>
       <c r="E8" t="n">
-        <v>105</v>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>151</v>
-      </c>
-      <c r="H8" t="n">
-        <v>20</v>
-      </c>
-      <c r="I8" t="n">
-        <v>100</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>798</v>
-      </c>
-      <c r="D9" t="n">
-        <v>42</v>
+        <v>973</v>
       </c>
       <c r="E9" t="n">
-        <v>1429</v>
-      </c>
-      <c r="F9" t="n">
-        <v>200</v>
-      </c>
-      <c r="G9" t="n">
-        <v>179</v>
-      </c>
-      <c r="I9" t="n">
-        <v>100</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -732,91 +614,52 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1572</v>
-      </c>
-      <c r="D10" t="n">
-        <v>69</v>
+        <v>1484</v>
       </c>
       <c r="E10" t="n">
-        <v>2312</v>
-      </c>
-      <c r="F10" t="n">
-        <v>300</v>
-      </c>
-      <c r="G10" t="n">
-        <v>161</v>
-      </c>
-      <c r="I10" t="n">
-        <v>100</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>ENT</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>884</v>
-      </c>
-      <c r="D11" t="n">
-        <v>89</v>
+        <v>1027</v>
       </c>
       <c r="E11" t="n">
-        <v>1166</v>
-      </c>
-      <c r="F11" t="n">
-        <v>400</v>
-      </c>
-      <c r="G11" t="n">
-        <v>121</v>
-      </c>
-      <c r="I11" t="n">
-        <v>100</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1053</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
+        <v>895</v>
       </c>
       <c r="E12" t="n">
-        <v>1860</v>
-      </c>
-      <c r="F12" t="n">
-        <v>400</v>
-      </c>
-      <c r="G12" t="n">
-        <v>135</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.9048387096774193</v>
-      </c>
-      <c r="I12" t="n">
-        <v>100</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -825,94 +668,52 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1571</v>
-      </c>
-      <c r="D13" t="n">
-        <v>47</v>
+        <v>1556</v>
       </c>
       <c r="E13" t="n">
-        <v>2323</v>
-      </c>
-      <c r="F13" t="n">
-        <v>300</v>
-      </c>
-      <c r="G13" t="n">
-        <v>170</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.8876452862677572</v>
-      </c>
-      <c r="I13" t="n">
-        <v>100</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>ENT</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>947</v>
-      </c>
-      <c r="D14" t="n">
-        <v>73</v>
+        <v>869</v>
       </c>
       <c r="E14" t="n">
-        <v>1237</v>
-      </c>
-      <c r="F14" t="n">
-        <v>400</v>
-      </c>
-      <c r="G14" t="n">
-        <v>173</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.9458367016976557</v>
-      </c>
-      <c r="I14" t="n">
-        <v>100</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1065</v>
-      </c>
-      <c r="D15" t="n">
-        <v>85</v>
+        <v>813</v>
       </c>
       <c r="E15" t="n">
-        <v>1598</v>
-      </c>
-      <c r="F15" t="n">
-        <v>300</v>
-      </c>
-      <c r="G15" t="n">
-        <v>149</v>
-      </c>
-      <c r="I15" t="n">
-        <v>100</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -921,82 +722,52 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1492</v>
-      </c>
-      <c r="D16" t="n">
-        <v>95</v>
+        <v>1353</v>
       </c>
       <c r="E16" t="n">
-        <v>2305</v>
-      </c>
-      <c r="F16" t="n">
-        <v>300</v>
-      </c>
-      <c r="G16" t="n">
-        <v>161</v>
-      </c>
-      <c r="I16" t="n">
-        <v>100</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>ENT</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>918</v>
+        <v>1020</v>
       </c>
       <c r="E17" t="n">
-        <v>1284</v>
-      </c>
-      <c r="F17" t="n">
-        <v>300</v>
-      </c>
-      <c r="I17" t="n">
-        <v>100</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1009</v>
-      </c>
-      <c r="D18" t="n">
-        <v>39</v>
+        <v>929</v>
       </c>
       <c r="E18" t="n">
-        <v>1421</v>
-      </c>
-      <c r="F18" t="n">
-        <v>300</v>
-      </c>
-      <c r="G18" t="n">
-        <v>153</v>
-      </c>
-      <c r="I18" t="n">
-        <v>100</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1005,92 +776,52 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1415</v>
-      </c>
-      <c r="D19" t="n">
-        <v>57</v>
+        <v>1623</v>
       </c>
       <c r="E19" t="n">
-        <v>2044</v>
-      </c>
-      <c r="F19" t="n">
-        <v>300</v>
-      </c>
-      <c r="G19" t="n">
-        <v>133</v>
-      </c>
-      <c r="I19" t="n">
-        <v>100</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>ENT</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>783</v>
-      </c>
-      <c r="D20" t="n">
-        <v>42</v>
+        <v>906</v>
       </c>
       <c r="E20" t="n">
-        <v>1117</v>
-      </c>
-      <c r="F20" t="n">
-        <v>400</v>
-      </c>
-      <c r="G20" t="n">
-        <v>145</v>
-      </c>
-      <c r="I20" t="n">
-        <v>100</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENT</t>
-        </is>
-      </c>
-      <c r="C21">
-        <f>D21-3</f>
-        <v/>
-      </c>
-      <c r="D21" t="n">
-        <v>69</v>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>869</v>
       </c>
       <c r="E21" t="n">
-        <v>200</v>
-      </c>
-      <c r="F21" t="n">
-        <v>300</v>
-      </c>
-      <c r="G21" t="n">
-        <v>174</v>
-      </c>
-      <c r="H21" t="n">
-        <v>66</v>
-      </c>
-      <c r="I21" t="n">
-        <v>100</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1098,101 +829,53 @@
           <t>OTO</t>
         </is>
       </c>
-      <c r="C22">
-        <f>D22-3</f>
-        <v/>
-      </c>
-      <c r="D22" t="n">
-        <v>61</v>
+      <c r="C22" t="n">
+        <v>1356</v>
       </c>
       <c r="E22" t="n">
-        <v>200</v>
-      </c>
-      <c r="F22" t="n">
-        <v>300</v>
-      </c>
-      <c r="G22" t="n">
-        <v>157</v>
-      </c>
-      <c r="H22" t="n">
-        <v>58</v>
-      </c>
-      <c r="I22" t="n">
-        <v>100</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>2024-07</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="C23">
-        <f>D23-3</f>
-        <v/>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>64</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1043</v>
       </c>
       <c r="E23" t="n">
-        <v>200</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="H23" t="n">
-        <v>61</v>
-      </c>
-      <c r="I23" t="n">
-        <v>100</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ENT</t>
-        </is>
-      </c>
-      <c r="C24">
-        <f>D24-3</f>
-        <v/>
-      </c>
-      <c r="D24" t="n">
-        <v>21</v>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1015</v>
       </c>
       <c r="E24" t="n">
-        <v>200</v>
-      </c>
-      <c r="F24" t="n">
-        <v>300</v>
-      </c>
-      <c r="G24" t="n">
-        <v>151</v>
-      </c>
-      <c r="H24" t="n">
-        <v>18</v>
-      </c>
-      <c r="I24" t="n">
-        <v>100</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1200,101 +883,53 @@
           <t>OTO</t>
         </is>
       </c>
-      <c r="C25">
-        <f>D25-3</f>
-        <v/>
-      </c>
-      <c r="D25" t="n">
-        <v>91</v>
+      <c r="C25" t="n">
+        <v>1798</v>
       </c>
       <c r="E25" t="n">
-        <v>200</v>
-      </c>
-      <c r="F25" t="n">
-        <v>300</v>
-      </c>
-      <c r="G25" t="n">
-        <v>140</v>
-      </c>
-      <c r="H25" t="n">
-        <v>88</v>
-      </c>
-      <c r="I25" t="n">
-        <v>100</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="C26">
-        <f>D26-3</f>
-        <v/>
-      </c>
-      <c r="D26" t="n">
-        <v>15</v>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1032</v>
       </c>
       <c r="E26" t="n">
-        <v>200</v>
-      </c>
-      <c r="F26" t="n">
-        <v>400</v>
-      </c>
-      <c r="G26" t="n">
-        <v>124</v>
-      </c>
-      <c r="H26" t="n">
-        <v>12</v>
-      </c>
-      <c r="I26" t="n">
-        <v>100</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ENT</t>
-        </is>
-      </c>
-      <c r="C27">
-        <f>D27-3</f>
-        <v/>
-      </c>
-      <c r="D27" t="n">
-        <v>14</v>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>893</v>
       </c>
       <c r="E27" t="n">
-        <v>200</v>
-      </c>
-      <c r="F27" t="n">
-        <v>300</v>
-      </c>
-      <c r="G27" t="n">
-        <v>142</v>
-      </c>
-      <c r="H27" t="n">
-        <v>11</v>
-      </c>
-      <c r="I27" t="n">
-        <v>100</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1302,101 +937,53 @@
           <t>OTO</t>
         </is>
       </c>
-      <c r="C28">
-        <f>D28-3</f>
-        <v/>
-      </c>
-      <c r="D28" t="n">
-        <v>79</v>
+      <c r="C28" t="n">
+        <v>1716</v>
       </c>
       <c r="E28" t="n">
-        <v>200</v>
-      </c>
-      <c r="F28" t="n">
-        <v>300</v>
-      </c>
-      <c r="G28" t="n">
-        <v>147</v>
-      </c>
-      <c r="H28" t="n">
-        <v>76</v>
-      </c>
-      <c r="I28" t="n">
-        <v>100</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="C29">
-        <f>D29-3</f>
-        <v/>
-      </c>
-      <c r="D29" t="n">
-        <v>89</v>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>962</v>
       </c>
       <c r="E29" t="n">
-        <v>200</v>
-      </c>
-      <c r="F29" t="n">
-        <v>400</v>
-      </c>
-      <c r="G29" t="n">
-        <v>169</v>
-      </c>
-      <c r="H29" t="n">
-        <v>86</v>
-      </c>
-      <c r="I29" t="n">
-        <v>100</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ENT</t>
-        </is>
-      </c>
-      <c r="C30">
-        <f>D30-3</f>
-        <v/>
-      </c>
-      <c r="D30" t="n">
-        <v>30</v>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>834</v>
       </c>
       <c r="E30" t="n">
-        <v>200</v>
-      </c>
-      <c r="F30" t="n">
-        <v>300</v>
-      </c>
-      <c r="G30" t="n">
-        <v>152</v>
-      </c>
-      <c r="H30" t="n">
-        <v>27</v>
-      </c>
-      <c r="I30" t="n">
-        <v>100</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1404,101 +991,53 @@
           <t>OTO</t>
         </is>
       </c>
-      <c r="C31">
-        <f>D31-3</f>
-        <v/>
-      </c>
-      <c r="D31" t="n">
-        <v>63</v>
+      <c r="C31" t="n">
+        <v>1438</v>
       </c>
       <c r="E31" t="n">
-        <v>200</v>
-      </c>
-      <c r="F31" t="n">
-        <v>300</v>
-      </c>
-      <c r="G31" t="n">
-        <v>148</v>
-      </c>
-      <c r="H31" t="n">
-        <v>60</v>
-      </c>
-      <c r="I31" t="n">
-        <v>100</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="C32">
-        <f>D32-3</f>
-        <v/>
-      </c>
-      <c r="D32" t="n">
-        <v>33</v>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>921</v>
       </c>
       <c r="E32" t="n">
-        <v>200</v>
-      </c>
-      <c r="F32" t="n">
-        <v>400</v>
-      </c>
-      <c r="G32" t="n">
-        <v>162</v>
-      </c>
-      <c r="H32" t="n">
-        <v>30</v>
-      </c>
-      <c r="I32" t="n">
-        <v>100</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-11</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ENT</t>
-        </is>
-      </c>
-      <c r="C33">
-        <f>D33-3</f>
-        <v/>
-      </c>
-      <c r="D33" t="n">
-        <v>90</v>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>848</v>
       </c>
       <c r="E33" t="n">
-        <v>200</v>
-      </c>
-      <c r="F33" t="n">
-        <v>300</v>
-      </c>
-      <c r="G33" t="n">
-        <v>150</v>
-      </c>
-      <c r="H33" t="n">
-        <v>87</v>
-      </c>
-      <c r="I33" t="n">
-        <v>100</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-11</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1506,135 +1045,71 @@
           <t>OTO</t>
         </is>
       </c>
-      <c r="C34">
-        <f>D34-3</f>
-        <v/>
-      </c>
-      <c r="D34" t="n">
-        <v>73</v>
+      <c r="C34" t="n">
+        <v>1607</v>
       </c>
       <c r="E34" t="n">
-        <v>200</v>
-      </c>
-      <c r="F34" t="n">
-        <v>300</v>
-      </c>
-      <c r="G34" t="n">
-        <v>175</v>
-      </c>
-      <c r="H34" t="n">
-        <v>70</v>
-      </c>
-      <c r="I34" t="n">
-        <v>100</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="C35">
-        <f>D35-3</f>
-        <v/>
-      </c>
-      <c r="D35" t="n">
-        <v>63</v>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1127</v>
       </c>
       <c r="E35" t="n">
-        <v>200</v>
-      </c>
-      <c r="F35" t="n">
-        <v>400</v>
-      </c>
-      <c r="G35" t="n">
-        <v>125</v>
-      </c>
-      <c r="H35" t="n">
-        <v>60</v>
-      </c>
-      <c r="I35" t="n">
-        <v>100</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-12</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>OTO</t>
-        </is>
-      </c>
-      <c r="C36">
-        <f>D36-3</f>
-        <v/>
-      </c>
-      <c r="D36" t="n">
-        <v>21</v>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>839</v>
       </c>
       <c r="E36" t="n">
-        <v>200</v>
-      </c>
-      <c r="F36" t="n">
-        <v>300</v>
-      </c>
-      <c r="G36" t="n">
-        <v>140</v>
-      </c>
-      <c r="H36" t="n">
-        <v>18</v>
-      </c>
-      <c r="I36" t="n">
-        <v>100</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-12</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="C37">
-        <f>D37-3</f>
-        <v/>
-      </c>
-      <c r="D37" t="n">
-        <v>8</v>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1620</v>
       </c>
       <c r="E37" t="n">
-        <v>200</v>
-      </c>
-      <c r="F37" t="n">
-        <v>400</v>
-      </c>
-      <c r="G37" t="n">
-        <v>160</v>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-      <c r="I37" t="n">
-        <v>100</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1642,31 +1117,1333 @@
           <t>ENT</t>
         </is>
       </c>
-      <c r="C38">
-        <f>D38-3</f>
-        <v/>
-      </c>
-      <c r="D38" t="n">
-        <v>56</v>
+      <c r="C38" t="n">
+        <v>984</v>
       </c>
       <c r="E38" t="n">
-        <v>200</v>
-      </c>
-      <c r="F38" t="n">
-        <v>300</v>
-      </c>
-      <c r="G38" t="n">
-        <v>133</v>
-      </c>
-      <c r="H38" t="n">
-        <v>53</v>
-      </c>
-      <c r="I38" t="n">
-        <v>100</v>
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>812</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1621</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>937</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>800</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1579</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1175</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1053</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1677</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>878</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>813</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1336</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>762</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>991</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1723</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>811</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>904</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1513</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1228</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>846</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1587</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1036</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>925</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1664</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>551</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>867</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1396</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>840</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>846</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1579</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>480</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>873</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1537</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-12</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>700</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-12</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>714</v>
+      </c>
+      <c r="E72" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023-12</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1246</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-01</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>717</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1740</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1375</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.5146443514644351</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-01</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>977</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1345</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1388</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.3070624360286592</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-01</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1439</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2210</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4440</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.7852675469075747</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>809</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1407</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1123</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1491</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.3621755253399258</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>821</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1161</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1220</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1223</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.3032886723507917</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1288</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3987</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2240</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.7507763975155279</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>798</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1429</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1482</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>884</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1166</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1273</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1210</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.2816742081447964</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1572</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2312</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3133</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2205</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.7404580152671756</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1053</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1860</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1014</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1480</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.3627730294396961</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>947</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1237</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1200</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.3083421330517424</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1571</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2323</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3723</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2223</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.7332908975175048</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1065</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1598</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1043</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1551</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.444131455399061</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>918</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1284</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1259</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1204</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.3082788671023965</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1492</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2305</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3311</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2246</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.7231903485254692</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1009</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1421</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1188</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1568</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.5777998017839445</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>783</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1117</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1077</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1212</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.2669220945083014</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1415</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2044</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3211</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2243</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.768904593639576</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>1089</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1507</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>4201</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>1033</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>1291</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>4431</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>498</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>1155</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>4196</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>5110</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I38"/>
+  <autoFilter ref="A1:I38">
+    <sortState ref="A2:I109">
+      <sortCondition ref="A1:A38"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Final Capstone/GUI/build/assets/DB/DB File.xlsx
+++ b/Final Capstone/GUI/build/assets/DB/DB File.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2070" yWindow="3585" windowWidth="16200" windowHeight="9983" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Month_Stats" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Month_Stats'!$A$1:$I$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Month_Stats'!$A$1:$I$14</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -27,18 +27,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -53,9 +47,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,21 +392,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="27" customWidth="1" min="1" max="1"/>
-    <col width="12.59765625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="12.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="14.1328125" customWidth="1" min="5" max="5"/>
-    <col width="22.86328125" customWidth="1" min="7" max="7"/>
-    <col width="11.86328125" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="12.59765625" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="19.85546875" customWidth="1" min="4" max="4"/>
+    <col width="26.85546875" customWidth="1" min="5" max="5"/>
+    <col width="22.85546875" customWidth="1" min="7" max="7"/>
+    <col width="14.5703125" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="15.28515625" bestFit="1" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -466,7 +460,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -474,254 +468,164 @@
           <t>ENT</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>762</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1295</v>
-      </c>
       <c r="F2" t="n">
-        <v>300</v>
+        <v>682</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OTO</t>
-        </is>
-      </c>
-      <c r="C3">
-        <f>D3-3</f>
-        <v/>
-      </c>
-      <c r="D3" t="n">
-        <v>73</v>
-      </c>
-      <c r="E3" t="n">
-        <v>121</v>
+          <t>GAS</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>300</v>
-      </c>
-      <c r="G3" t="n">
-        <v>157</v>
-      </c>
-      <c r="H3" t="n">
-        <v>70</v>
+        <v>1278</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENT</t>
-        </is>
-      </c>
-      <c r="C4">
-        <f>D4-3</f>
-        <v/>
-      </c>
-      <c r="D4" t="n">
-        <v>11</v>
-      </c>
-      <c r="E4" t="n">
-        <v>108</v>
+          <t>OTO</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>200</v>
-      </c>
-      <c r="G4" t="n">
-        <v>150</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+        <v>5110</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="C5">
-        <f>D5-3</f>
-        <v/>
-      </c>
-      <c r="D5" t="n">
-        <v>90</v>
-      </c>
-      <c r="E5" t="n">
-        <v>106</v>
+          <t>ENT</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>498</v>
       </c>
       <c r="G5" t="n">
-        <v>153</v>
-      </c>
-      <c r="H5" t="n">
-        <v>87</v>
+        <v>1583</v>
       </c>
       <c r="I5" t="n">
-        <v>100</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OTO</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1288</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2022</v>
+          <t>GAS</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>300</v>
+        <v>1155</v>
       </c>
       <c r="G6" t="n">
-        <v>155</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.7507763975155279</v>
+        <v>1193</v>
       </c>
       <c r="I6" t="n">
-        <v>100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENT</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>809</v>
-      </c>
-      <c r="D7" t="n">
-        <v>39</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1407</v>
+          <t>OTO</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>200</v>
+        <v>4196</v>
       </c>
       <c r="G7" t="n">
-        <v>152</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.3621755253399258</v>
+        <v>2224</v>
       </c>
       <c r="I7" t="n">
-        <v>100</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>821</v>
+          <t>ENT</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1161</v>
+        <v>93.45200254291164</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>1033</v>
       </c>
       <c r="G8" t="n">
-        <v>151</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.3032886723507917</v>
+        <v>1573</v>
       </c>
       <c r="I8" t="n">
-        <v>100</v>
+        <v>968</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENT</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>798</v>
+          <t>GAS</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1429</v>
+        <v>89.95815899581589</v>
       </c>
       <c r="F9" t="n">
-        <v>200</v>
+        <v>1291</v>
       </c>
       <c r="G9" t="n">
-        <v>179</v>
+        <v>1195</v>
       </c>
       <c r="I9" t="n">
-        <v>100</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -729,92 +633,71 @@
           <t>OTO</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>1572</v>
-      </c>
       <c r="D10" t="n">
-        <v>69</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2312</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>300</v>
+        <v>4431</v>
       </c>
       <c r="G10" t="n">
-        <v>161</v>
+        <v>2222</v>
       </c>
       <c r="I10" t="n">
-        <v>100</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>884</v>
+          <t>ENT</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>89</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1166</v>
+        <v>93.98976982097187</v>
       </c>
       <c r="F11" t="n">
-        <v>400</v>
+        <v>1089</v>
       </c>
       <c r="G11" t="n">
-        <v>121</v>
+        <v>1564</v>
       </c>
       <c r="I11" t="n">
-        <v>100</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENT</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1053</v>
+          <t>GAS</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1860</v>
+        <v>89.8078529657477</v>
       </c>
       <c r="F12" t="n">
-        <v>400</v>
+        <v>1507</v>
       </c>
       <c r="G12" t="n">
-        <v>135</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
+        <v>1197</v>
       </c>
       <c r="I12" t="n">
-        <v>100</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -822,98 +705,89 @@
           <t>OTO</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>1571</v>
-      </c>
       <c r="D13" t="n">
-        <v>47</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2323</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>300</v>
+        <v>4201</v>
       </c>
       <c r="G13" t="n">
-        <v>170</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
+        <v>2219</v>
       </c>
       <c r="I13" t="n">
-        <v>100</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>ENT</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>947</v>
+        <v>1009</v>
       </c>
       <c r="D14" t="n">
-        <v>73</v>
+        <v>93.68622448979592</v>
       </c>
       <c r="E14" t="n">
-        <v>1237</v>
+        <v>1421</v>
       </c>
       <c r="F14" t="n">
-        <v>400</v>
+        <v>1188</v>
       </c>
       <c r="G14" t="n">
-        <v>173</v>
+        <v>1568</v>
       </c>
       <c r="H14" t="n">
-        <v>100</v>
+        <v>93.03307529908516</v>
       </c>
       <c r="I14" t="n">
-        <v>100</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1065</v>
+        <v>783</v>
       </c>
       <c r="D15" t="n">
-        <v>85</v>
+        <v>89.1914191419142</v>
       </c>
       <c r="E15" t="n">
-        <v>1598</v>
+        <v>1117</v>
       </c>
       <c r="F15" t="n">
-        <v>300</v>
+        <v>1077</v>
       </c>
       <c r="G15" t="n">
-        <v>149</v>
+        <v>1212</v>
       </c>
       <c r="H15" t="n">
-        <v>0.444131455399061</v>
+        <v>88.272157564906</v>
       </c>
       <c r="I15" t="n">
-        <v>100</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -922,25 +796,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1492</v>
+        <v>1415</v>
       </c>
       <c r="D16" t="n">
-        <v>95</v>
+        <v>58.76058849754793</v>
       </c>
       <c r="E16" t="n">
-        <v>2305</v>
+        <v>2044</v>
       </c>
       <c r="F16" t="n">
-        <v>300</v>
+        <v>3211</v>
       </c>
       <c r="G16" t="n">
-        <v>161</v>
+        <v>2243</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7231903485254692</v>
+        <v>54.74559686888454</v>
       </c>
       <c r="I16" t="n">
-        <v>100</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="17">
@@ -951,59 +825,68 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>ENT</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>918</v>
+        <v>1065</v>
+      </c>
+      <c r="D17" t="n">
+        <v>93.23017408123792</v>
       </c>
       <c r="E17" t="n">
-        <v>1284</v>
+        <v>1598</v>
       </c>
       <c r="F17" t="n">
-        <v>300</v>
+        <v>1043</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1551</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3082788671023965</v>
+        <v>93.42928660826033</v>
       </c>
       <c r="I17" t="n">
-        <v>100</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1009</v>
+        <v>918</v>
       </c>
       <c r="D18" t="n">
-        <v>39</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="E18" t="n">
-        <v>1421</v>
+        <v>1284</v>
       </c>
       <c r="F18" t="n">
-        <v>300</v>
+        <v>1259</v>
       </c>
       <c r="G18" t="n">
-        <v>153</v>
+        <v>1204</v>
+      </c>
+      <c r="H18" t="n">
+        <v>86.6043613707165</v>
       </c>
       <c r="I18" t="n">
-        <v>100</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1012,262 +895,262 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1415</v>
+        <v>1492</v>
       </c>
       <c r="D19" t="n">
-        <v>57</v>
+        <v>80.67675868210151</v>
       </c>
       <c r="E19" t="n">
-        <v>2044</v>
+        <v>2305</v>
       </c>
       <c r="F19" t="n">
-        <v>300</v>
+        <v>3311</v>
       </c>
       <c r="G19" t="n">
-        <v>133</v>
+        <v>2246</v>
+      </c>
+      <c r="H19" t="n">
+        <v>81.17136659436008</v>
       </c>
       <c r="I19" t="n">
-        <v>100</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>ENT</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>783</v>
+        <v>1053</v>
       </c>
       <c r="D20" t="n">
-        <v>42</v>
+        <v>95.4054054054054</v>
       </c>
       <c r="E20" t="n">
-        <v>1117</v>
+        <v>1860</v>
       </c>
       <c r="F20" t="n">
-        <v>400</v>
+        <v>1014</v>
       </c>
       <c r="G20" t="n">
-        <v>145</v>
+        <v>1480</v>
+      </c>
+      <c r="H20" t="n">
+        <v>96.34408602150538</v>
       </c>
       <c r="I20" t="n">
-        <v>100</v>
+        <v>981</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENT</t>
-        </is>
-      </c>
-      <c r="C21">
-        <f>D21-3</f>
-        <v/>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1571</v>
       </c>
       <c r="D21" t="n">
-        <v>69</v>
+        <v>77.37291947818264</v>
       </c>
       <c r="E21" t="n">
-        <v>200</v>
+        <v>2323</v>
       </c>
       <c r="F21" t="n">
-        <v>300</v>
+        <v>3723</v>
       </c>
       <c r="G21" t="n">
-        <v>174</v>
+        <v>2223</v>
       </c>
       <c r="H21" t="n">
-        <v>66</v>
+        <v>78.34696513129575</v>
       </c>
       <c r="I21" t="n">
-        <v>100</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>OTO</t>
-        </is>
-      </c>
-      <c r="C22">
-        <f>D22-3</f>
-        <v/>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>947</v>
       </c>
       <c r="D22" t="n">
-        <v>61</v>
+        <v>83.5</v>
       </c>
       <c r="E22" t="n">
-        <v>200</v>
+        <v>1237</v>
       </c>
       <c r="F22" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="G22" t="n">
-        <v>157</v>
+        <v>1200</v>
       </c>
       <c r="H22" t="n">
-        <v>58</v>
+        <v>83.99353274050121</v>
       </c>
       <c r="I22" t="n">
-        <v>100</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>2024-07</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="C23">
-        <f>D23-3</f>
-        <v/>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>64</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>798</v>
+      </c>
+      <c r="D23" t="n">
+        <v>95.34412955465586</v>
       </c>
       <c r="E23" t="n">
-        <v>200</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>164</v>
+        <v>1429</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1482</v>
       </c>
       <c r="H23" t="n">
-        <v>61</v>
+        <v>95.17144856543037</v>
       </c>
       <c r="I23" t="n">
-        <v>100</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ENT</t>
-        </is>
-      </c>
-      <c r="C24">
-        <f>D24-3</f>
-        <v/>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1572</v>
       </c>
       <c r="D24" t="n">
-        <v>21</v>
+        <v>78.36734693877551</v>
       </c>
       <c r="E24" t="n">
-        <v>200</v>
+        <v>2312</v>
       </c>
       <c r="F24" t="n">
-        <v>300</v>
+        <v>3133</v>
       </c>
       <c r="G24" t="n">
-        <v>151</v>
+        <v>2205</v>
       </c>
       <c r="H24" t="n">
-        <v>18</v>
+        <v>79.36851211072664</v>
       </c>
       <c r="I24" t="n">
-        <v>100</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>OTO</t>
-        </is>
-      </c>
-      <c r="C25">
-        <f>D25-3</f>
-        <v/>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>884</v>
       </c>
       <c r="D25" t="n">
-        <v>91</v>
+        <v>82.47933884297521</v>
       </c>
       <c r="E25" t="n">
-        <v>200</v>
+        <v>1166</v>
       </c>
       <c r="F25" t="n">
-        <v>300</v>
+        <v>1273</v>
       </c>
       <c r="G25" t="n">
-        <v>140</v>
+        <v>1210</v>
       </c>
       <c r="H25" t="n">
-        <v>88</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="I25" t="n">
-        <v>100</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="C26">
-        <f>D26-3</f>
-        <v/>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1288</v>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>72.09821428571429</v>
       </c>
       <c r="E26" t="n">
-        <v>200</v>
+        <v>2022</v>
       </c>
       <c r="F26" t="n">
-        <v>400</v>
+        <v>3987</v>
       </c>
       <c r="G26" t="n">
-        <v>124</v>
+        <v>2240</v>
       </c>
       <c r="H26" t="n">
-        <v>12</v>
+        <v>69.09000989119683</v>
       </c>
       <c r="I26" t="n">
-        <v>100</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1275,101 +1158,92 @@
           <t>ENT</t>
         </is>
       </c>
-      <c r="C27">
-        <f>D27-3</f>
-        <v/>
+      <c r="C27" t="n">
+        <v>809</v>
       </c>
       <c r="D27" t="n">
-        <v>14</v>
+        <v>95.90878604963112</v>
       </c>
       <c r="E27" t="n">
-        <v>200</v>
+        <v>1407</v>
       </c>
       <c r="F27" t="n">
-        <v>300</v>
+        <v>1123</v>
       </c>
       <c r="G27" t="n">
-        <v>142</v>
+        <v>1491</v>
       </c>
       <c r="H27" t="n">
-        <v>11</v>
+        <v>95.66453447050462</v>
       </c>
       <c r="I27" t="n">
-        <v>100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>OTO</t>
-        </is>
-      </c>
-      <c r="C28">
-        <f>D28-3</f>
-        <v/>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>821</v>
       </c>
       <c r="D28" t="n">
-        <v>79</v>
+        <v>82.50204415372036</v>
       </c>
       <c r="E28" t="n">
-        <v>200</v>
+        <v>1161</v>
       </c>
       <c r="F28" t="n">
-        <v>300</v>
+        <v>1220</v>
       </c>
       <c r="G28" t="n">
-        <v>147</v>
+        <v>1223</v>
       </c>
       <c r="H28" t="n">
-        <v>76</v>
+        <v>81.56761412575366</v>
       </c>
       <c r="I28" t="n">
-        <v>100</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="C29">
-        <f>D29-3</f>
-        <v/>
-      </c>
-      <c r="D29" t="n">
-        <v>89</v>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1439</v>
       </c>
       <c r="E29" t="n">
-        <v>200</v>
+        <v>2210</v>
       </c>
       <c r="F29" t="n">
-        <v>400</v>
-      </c>
-      <c r="G29" t="n">
-        <v>169</v>
+        <v>4440</v>
       </c>
       <c r="H29" t="n">
-        <v>86</v>
+        <v>62.21719457013575</v>
       </c>
       <c r="I29" t="n">
-        <v>100</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1377,135 +1251,89 @@
           <t>ENT</t>
         </is>
       </c>
-      <c r="C30">
-        <f>D30-3</f>
-        <v/>
-      </c>
-      <c r="D30" t="n">
-        <v>30</v>
+      <c r="C30" t="n">
+        <v>717</v>
       </c>
       <c r="E30" t="n">
-        <v>200</v>
+        <v>1740</v>
       </c>
       <c r="F30" t="n">
-        <v>300</v>
-      </c>
-      <c r="G30" t="n">
-        <v>152</v>
+        <v>1375</v>
       </c>
       <c r="H30" t="n">
-        <v>27</v>
+        <v>96.60919540229885</v>
       </c>
       <c r="I30" t="n">
-        <v>100</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>OTO</t>
-        </is>
-      </c>
-      <c r="C31">
-        <f>D31-3</f>
-        <v/>
-      </c>
-      <c r="D31" t="n">
-        <v>63</v>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>977</v>
       </c>
       <c r="E31" t="n">
-        <v>200</v>
+        <v>1345</v>
       </c>
       <c r="F31" t="n">
-        <v>300</v>
-      </c>
-      <c r="G31" t="n">
-        <v>148</v>
+        <v>1388</v>
       </c>
       <c r="H31" t="n">
-        <v>60</v>
+        <v>84.53531598513011</v>
       </c>
       <c r="I31" t="n">
-        <v>100</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="C32">
-        <f>D32-3</f>
-        <v/>
-      </c>
-      <c r="D32" t="n">
-        <v>33</v>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>700</v>
       </c>
       <c r="E32" t="n">
-        <v>200</v>
-      </c>
-      <c r="F32" t="n">
-        <v>400</v>
-      </c>
-      <c r="G32" t="n">
-        <v>162</v>
-      </c>
-      <c r="H32" t="n">
-        <v>30</v>
-      </c>
-      <c r="I32" t="n">
-        <v>100</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ENT</t>
-        </is>
-      </c>
-      <c r="C33">
-        <f>D33-3</f>
-        <v/>
-      </c>
-      <c r="D33" t="n">
-        <v>90</v>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>714</v>
       </c>
       <c r="E33" t="n">
-        <v>200</v>
-      </c>
-      <c r="F33" t="n">
-        <v>300</v>
-      </c>
-      <c r="G33" t="n">
-        <v>150</v>
-      </c>
-      <c r="H33" t="n">
-        <v>87</v>
-      </c>
-      <c r="I33" t="n">
-        <v>100</v>
+        <v>999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1513,135 +1341,71 @@
           <t>OTO</t>
         </is>
       </c>
-      <c r="C34">
-        <f>D34-3</f>
-        <v/>
-      </c>
-      <c r="D34" t="n">
-        <v>73</v>
+      <c r="C34" t="n">
+        <v>1246</v>
       </c>
       <c r="E34" t="n">
-        <v>200</v>
-      </c>
-      <c r="F34" t="n">
-        <v>300</v>
-      </c>
-      <c r="G34" t="n">
-        <v>175</v>
-      </c>
-      <c r="H34" t="n">
-        <v>70</v>
-      </c>
-      <c r="I34" t="n">
-        <v>100</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-11</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="C35">
-        <f>D35-3</f>
-        <v/>
-      </c>
-      <c r="D35" t="n">
-        <v>63</v>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>480</v>
       </c>
       <c r="E35" t="n">
-        <v>200</v>
-      </c>
-      <c r="F35" t="n">
-        <v>400</v>
-      </c>
-      <c r="G35" t="n">
-        <v>125</v>
-      </c>
-      <c r="H35" t="n">
-        <v>60</v>
-      </c>
-      <c r="I35" t="n">
-        <v>100</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-12</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>OTO</t>
-        </is>
-      </c>
-      <c r="C36">
-        <f>D36-3</f>
-        <v/>
-      </c>
-      <c r="D36" t="n">
-        <v>21</v>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>873</v>
       </c>
       <c r="E36" t="n">
-        <v>200</v>
-      </c>
-      <c r="F36" t="n">
-        <v>300</v>
-      </c>
-      <c r="G36" t="n">
-        <v>140</v>
-      </c>
-      <c r="H36" t="n">
-        <v>18</v>
-      </c>
-      <c r="I36" t="n">
-        <v>100</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-12</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="C37">
-        <f>D37-3</f>
-        <v/>
-      </c>
-      <c r="D37" t="n">
-        <v>8</v>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1537</v>
       </c>
       <c r="E37" t="n">
-        <v>200</v>
-      </c>
-      <c r="F37" t="n">
-        <v>400</v>
-      </c>
-      <c r="G37" t="n">
-        <v>160</v>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-      <c r="I37" t="n">
-        <v>100</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-12</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1649,31 +1413,1225 @@
           <t>ENT</t>
         </is>
       </c>
-      <c r="C38">
-        <f>D38-3</f>
-        <v/>
-      </c>
-      <c r="D38" t="n">
-        <v>56</v>
+      <c r="C38" t="n">
+        <v>840</v>
       </c>
       <c r="E38" t="n">
-        <v>200</v>
-      </c>
-      <c r="F38" t="n">
-        <v>300</v>
-      </c>
-      <c r="G38" t="n">
-        <v>133</v>
-      </c>
-      <c r="H38" t="n">
-        <v>53</v>
-      </c>
-      <c r="I38" t="n">
-        <v>100</v>
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>846</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1579</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>551</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>867</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1396</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1036</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>925</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1664</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1228</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>846</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1587</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>811</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>904</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1513</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>762</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>991</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1723</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>878</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>813</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1336</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1175</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1053</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1677</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>937</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>800</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1579</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>984</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>812</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1621</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1127</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>839</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1620</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>921</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>848</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1607</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>962</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>834</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1438</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1032</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>893</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1716</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1798</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>906</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>869</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1020</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>929</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1623</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>869</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>813</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1353</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1027</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>895</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1556</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>979</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>973</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1484</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>494</v>
+      </c>
+      <c r="E98" t="n">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>651</v>
+      </c>
+      <c r="E99" t="n">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>1077</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>870</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>845</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1435</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I38"/>
+  <autoFilter ref="A1:I14">
+    <sortState ref="A2:I103">
+      <sortCondition descending="1" ref="A1:A14"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Final Capstone/GUI/build/assets/DB/DB File.xlsx
+++ b/Final Capstone/GUI/build/assets/DB/DB File.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>

--- a/Final Capstone/GUI/build/assets/DB/DB File.xlsx
+++ b/Final Capstone/GUI/build/assets/DB/DB File.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="G5" sqref="G5:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -526,7 +526,7 @@
         <v>498</v>
       </c>
       <c r="G5" t="n">
-        <v>1583</v>
+        <v>1447</v>
       </c>
       <c r="I5" t="n">
         <v>460</v>
@@ -547,7 +547,7 @@
         <v>1155</v>
       </c>
       <c r="G6" t="n">
-        <v>1193</v>
+        <v>1226</v>
       </c>
       <c r="I6" t="n">
         <v>1094</v>
@@ -568,7 +568,7 @@
         <v>4196</v>
       </c>
       <c r="G7" t="n">
-        <v>2224</v>
+        <v>2198</v>
       </c>
       <c r="I7" t="n">
         <v>633</v>
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>93.45200254291164</v>
+        <v>92.88182446440912</v>
       </c>
       <c r="F8" t="n">
         <v>1033</v>
       </c>
       <c r="G8" t="n">
-        <v>1573</v>
+        <v>1447</v>
       </c>
       <c r="I8" t="n">
         <v>968</v>
@@ -610,13 +610,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>89.95815899581589</v>
+        <v>90.21207177814028</v>
       </c>
       <c r="F9" t="n">
         <v>1291</v>
       </c>
       <c r="G9" t="n">
-        <v>1195</v>
+        <v>1226</v>
       </c>
       <c r="I9" t="n">
         <v>1232</v>
@@ -640,7 +640,7 @@
         <v>4431</v>
       </c>
       <c r="G10" t="n">
-        <v>2222</v>
+        <v>2183</v>
       </c>
       <c r="I10" t="n">
         <v>1695</v>
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>93.98976982097187</v>
+        <v>93.503800967519</v>
       </c>
       <c r="F11" t="n">
         <v>1089</v>
       </c>
       <c r="G11" t="n">
-        <v>1564</v>
+        <v>1447</v>
       </c>
       <c r="I11" t="n">
         <v>1060</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>89.8078529657477</v>
+        <v>90.0489396411093</v>
       </c>
       <c r="F12" t="n">
         <v>1507</v>
       </c>
       <c r="G12" t="n">
-        <v>1197</v>
+        <v>1226</v>
       </c>
       <c r="I12" t="n">
         <v>1444</v>
@@ -712,7 +712,7 @@
         <v>4201</v>
       </c>
       <c r="G13" t="n">
-        <v>2219</v>
+        <v>2237</v>
       </c>
       <c r="I13" t="n">
         <v>3480</v>
